--- a/vibration_validation/data-table.xlsx
+++ b/vibration_validation/data-table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\legoh\Documents\Projects\Thetis-Scripts\vibration_validation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bduffy2018\Documents\Projects\Project Thetis\Thetis-Scripts\vibration_validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E42C2D8-8A27-440F-9094-097B73188830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E92B9B8-C16D-4066-B65B-4435EBE2E594}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DDE76E05-8FAB-49FF-8CA2-740187BB5A37}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{DDE76E05-8FAB-49FF-8CA2-740187BB5A37}"/>
   </bookViews>
   <sheets>
     <sheet name="x-axis" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -512,7 +509,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,12 +539,6 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>2027</v>
-      </c>
-      <c r="D2">
-        <v>41</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -556,12 +547,6 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>2091</v>
-      </c>
-      <c r="D3">
-        <v>39</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -570,12 +555,6 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>1945</v>
-      </c>
-      <c r="D4">
-        <v>43</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -584,12 +563,6 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>2069</v>
-      </c>
-      <c r="D5">
-        <v>36</v>
-      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -598,12 +571,6 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6">
-        <v>2077</v>
-      </c>
-      <c r="D6">
-        <v>40</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -612,12 +579,6 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
-        <v>2070</v>
-      </c>
-      <c r="D7">
-        <v>36</v>
-      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -626,12 +587,6 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
-        <v>2180</v>
-      </c>
-      <c r="D8">
-        <v>37</v>
-      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -640,12 +595,6 @@
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
-        <v>2070</v>
-      </c>
-      <c r="D9">
-        <v>36</v>
-      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -654,12 +603,6 @@
       <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
-        <v>2253</v>
-      </c>
-      <c r="D10">
-        <v>41</v>
-      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -668,12 +611,6 @@
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11">
-        <v>1899</v>
-      </c>
-      <c r="D11">
-        <v>40</v>
-      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -682,12 +619,6 @@
       <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C12">
-        <v>2257</v>
-      </c>
-      <c r="D12">
-        <v>50</v>
-      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -696,12 +627,6 @@
       <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="C13">
-        <v>3003</v>
-      </c>
-      <c r="D13">
-        <v>42</v>
-      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -710,12 +635,6 @@
       <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="C14">
-        <v>1042</v>
-      </c>
-      <c r="D14">
-        <v>48</v>
-      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -724,12 +643,6 @@
       <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C15">
-        <v>6095</v>
-      </c>
-      <c r="D15">
-        <v>50</v>
-      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -738,305 +651,173 @@
       <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="C16">
-        <v>1045</v>
-      </c>
-      <c r="D16">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10.5</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="C17">
-        <v>5108</v>
-      </c>
-      <c r="D17">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>11</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="C18">
-        <v>803</v>
-      </c>
-      <c r="D18">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>11.5</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="C19">
-        <v>5001</v>
-      </c>
-      <c r="D19">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>12</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="C20">
-        <v>803</v>
-      </c>
-      <c r="D20">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>12.5</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
-      <c r="C21">
-        <v>4159</v>
-      </c>
-      <c r="D21">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>13</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="C22">
-        <v>2003</v>
-      </c>
-      <c r="D22">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>13.5</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
-      <c r="C23">
-        <v>6900</v>
-      </c>
-      <c r="D23">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>14</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
-      <c r="C24">
-        <v>2002</v>
-      </c>
-      <c r="D24">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>14.5</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
-      <c r="C25">
-        <v>6902</v>
-      </c>
-      <c r="D25">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>15</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
-      <c r="C26">
-        <v>1000</v>
-      </c>
-      <c r="D26">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>15.5</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
       </c>
-      <c r="C27">
-        <v>4999</v>
-      </c>
-      <c r="D27">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>16</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
-      <c r="C28">
-        <v>1897</v>
-      </c>
-      <c r="D28">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>16.5</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
-      <c r="C29">
-        <v>5003</v>
-      </c>
-      <c r="D29">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>17</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
       </c>
-      <c r="C30">
-        <v>1896</v>
-      </c>
-      <c r="D30">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>18</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
-      <c r="C31">
-        <v>1895</v>
-      </c>
-      <c r="D31">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>19</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
       </c>
-      <c r="C32">
-        <v>4801</v>
-      </c>
-      <c r="D32">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>20</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
       </c>
-      <c r="C33">
-        <v>1500</v>
-      </c>
-      <c r="D33">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>21</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
       </c>
-      <c r="C34">
-        <v>3000</v>
-      </c>
-      <c r="D34">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>22</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
-      <c r="C35">
-        <v>3001</v>
-      </c>
-      <c r="D35">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>23</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
       </c>
-      <c r="C36">
-        <v>3148</v>
-      </c>
-      <c r="D36">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>24</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
-      </c>
-      <c r="C37">
-        <v>2082</v>
-      </c>
-      <c r="D37">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
